--- a/data/download/Demographic Trends.xlsx
+++ b/data/download/Demographic Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EPelletier\Desktop\Plane Work\DOWNLOADABLE DATA FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EPelletier\Desktop\Plane Work\Updated Depot Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="62">
   <si>
     <t>AK</t>
   </si>
@@ -153,9 +153,6 @@
     <t>WY</t>
   </si>
   <si>
-    <t>Percent black by time served</t>
-  </si>
-  <si>
     <t>Total prison population</t>
   </si>
   <si>
@@ -165,28 +162,49 @@
     <t>10 or more years</t>
   </si>
   <si>
-    <t>Percent black in state prison population / Percent black in state population</t>
+    <t>National Corrections Reporting Program</t>
   </si>
   <si>
-    <t>Percent black serving less than 10 years / Percent black in state population</t>
+    <t>https://www.bjs.gov/index.cfm?ty=dcdetail&amp;iid=268</t>
   </si>
   <si>
-    <t>Number of women serving less than 10 years</t>
+    <t>U.S. Census Bureau (State population by race)</t>
   </si>
   <si>
-    <t>Number of women serving 10 or more years</t>
+    <t>2000-2009: Intercensal Estimates of the Resident Population by Sex, Race, and Hispanic Origin for States: April 1, 2000 to July 1, 2010. https://www.census.gov/data/tables/time-series/demo/popest/intercensal-2000-2010-state.html</t>
   </si>
   <si>
-    <t>Percent of women serving 10 or more years</t>
+    <t>2010-2014: Annual Estimates of the Resident Population by Sex, Age, Race, and Hispanic Origin: April 1, 2010 to July 1, 2015. https://www.census.gov/data/tables/2015/demo/popest/state-detail.html</t>
   </si>
   <si>
-    <t>State</t>
+    <t>Sources:</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>STATE</t>
   </si>
   <si>
-    <t>Percent black serving 10 or more years / Percent black in state population</t>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>PERCENT BLACK BY TIME SERVED</t>
+  </si>
+  <si>
+    <t>PERCENT BLACK IN STATE PRISON POPULATION / PERCENT BLACK IN STATE POPULATION</t>
+  </si>
+  <si>
+    <t>PERCENT BLACK SERVING LESS THAN 10 YEARS / PERCENT BLACK IN STATE POPULATION</t>
+  </si>
+  <si>
+    <t>PERCENT BLACK SERVING 10 OR MORE YEARS / PERCENT BLACK IN STATE POPULATION</t>
+  </si>
+  <si>
+    <t>WOMEN SERVING LESS THAN 10 YEARS</t>
+  </si>
+  <si>
+    <t>WOMEN SERVING 10 OR MORE YEARS</t>
+  </si>
+  <si>
+    <t>SHARE OF WOMEN SERVING 10 OR MORE YEARS</t>
   </si>
 </sst>
 </file>
@@ -764,13 +782,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,6 +806,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K502"/>
+  <dimension ref="A1:K510"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,40 +1193,40 @@
         <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -18714,6 +18733,36 @@
       </c>
       <c r="K502" s="1">
         <v>1.1070111000000001E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
